--- a/biology/Médecine/Chromosome_5_humain/Chromosome_5_humain.xlsx
+++ b/biology/Médecine/Chromosome_5_humain/Chromosome_5_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chromosome 5 est un des 24 chromosomes humains. C'est l'un des 22 autosomes.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques du chromosome 5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nombre de paires de base : 180 857 866
 Nombre de gènes : 970
@@ -545,10 +559,12 @@
           <t>Anomalies chromosomiques décrites au niveau du chromosome 5</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La délétion du bras court de ce chromosome est responsable de la maladie du cri du chat en rapport avec le cri monochromatique aigu qui permet le diagnostic de cette maladie. C'est la perte du gène TERT, codant la télomérase reverse transcriptase, situé sur le locus p15.2 qui est responsable du cri aigu de cette maladie.
-Syndrome du cri du chat : la Monosomie 5p, d'abord décrite en 1963 par Lejeune et son équipe, est une entité clinique bien reconnue et le diagnostic peut aisément être fait à la naissance. En revanche, le diagnostic de trisomie 5p*, responsable d’un syndrome dysmorphique multiple, est plus difficile et habituellement fait sur l'analyse chromosomique[1].</t>
+Syndrome du cri du chat : la Monosomie 5p, d'abord décrite en 1963 par Lejeune et son équipe, est une entité clinique bien reconnue et le diagnostic peut aisément être fait à la naissance. En revanche, le diagnostic de trisomie 5p*, responsable d’un syndrome dysmorphique multiple, est plus difficile et habituellement fait sur l'analyse chromosomique.</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Maladies localisées sur le chromosome 5</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La nomenclature utilisée pour localiser un gène est décrite dans l'article de celui-ci
 Les maladies en rapport avec des anomalies génétiques localisées sur le chromosome 5 sont :</t>
@@ -608,6 +626,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
